--- a/data/trans_orig/IP16B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C1C40A-1B65-4044-87B7-2BBA160691FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6314226C-59BE-4E12-B04A-706FF822A718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C0226EC6-71DA-4F01-8D31-EDF74456DC2F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D138733D-4A86-4AB7-91BC-93E9D4B995D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,39 @@
     <t>84,31%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -139,39 +172,6 @@
     <t>82,19%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
     <t>3,49%</t>
   </si>
   <si>
@@ -298,16 +298,16 @@
     <t>76,75%</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
     <t>9,99%</t>
   </si>
   <si>
     <t>90,01%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36342DCE-FF51-4B6C-ACEA-271505C16F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F83EC4C-F36D-46F3-92FF-2351A4CAFD11}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -990,40 +990,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1307</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1308</v>
+        <v>818</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
@@ -1041,40 +1041,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>13586</v>
+        <v>3317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>9126</v>
+        <v>6871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>22712</v>
+        <v>10188</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -1092,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>13586</v>
+        <v>4135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1107,25 +1107,25 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6871</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7">
         <v>15</v>
       </c>
-      <c r="I9" s="7">
-        <v>10433</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="7">
-        <v>35</v>
-      </c>
       <c r="N9" s="7">
-        <v>24020</v>
+        <v>11006</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1145,40 +1145,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1307</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>818</v>
+        <v>1308</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
@@ -1196,40 +1196,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>3317</v>
+        <v>13586</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9126</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6871</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N11" s="7">
-        <v>10188</v>
+        <v>22712</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
@@ -1247,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>4135</v>
+        <v>13586</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1262,10 +1262,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>6871</v>
+        <v>10433</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1277,10 +1277,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N12" s="7">
-        <v>11006</v>
+        <v>24020</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1463,7 +1463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EF0C12-57D6-4DE2-9366-B9D4F126FB84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EF63EF-8EB3-4584-86D5-27118670122D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1623,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,7 +1671,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1736,19 +1736,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1097</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1097</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,46 +1790,46 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>7927</v>
+        <v>7716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>8307</v>
+        <v>6684</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>16235</v>
+        <v>14400</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>9024</v>
+        <v>7716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1853,10 +1853,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>8307</v>
+        <v>6684</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1868,10 +1868,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N9" s="7">
-        <v>17332</v>
+        <v>14400</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1891,19 +1891,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1918,22 +1918,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,46 +1945,46 @@
         <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>7716</v>
+        <v>7927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>6684</v>
+        <v>8307</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>14400</v>
+        <v>16235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,10 +1993,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>7716</v>
+        <v>9024</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2008,10 +2008,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>6684</v>
+        <v>8307</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2023,10 +2023,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N12" s="7">
-        <v>14400</v>
+        <v>17332</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2209,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A52286D-0042-40C1-AFC1-4DD2A5BC77B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08090313-5779-4CB8-ACAC-EDF609668EE8}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2494,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,46 +2533,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>6938</v>
+        <v>8647</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>7067</v>
+        <v>8838</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>14005</v>
+        <v>17485</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2584,10 +2584,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>6938</v>
+        <v>8647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2599,10 +2599,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>7067</v>
+        <v>8838</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2614,10 +2614,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>14005</v>
+        <v>17485</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2649,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,46 +2688,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>8647</v>
+        <v>6938</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7067</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>18</v>
+      </c>
+      <c r="N11" s="7">
+        <v>14005</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8838</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7">
-        <v>25</v>
-      </c>
-      <c r="N11" s="7">
-        <v>17485</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2739,10 +2739,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>8647</v>
+        <v>6938</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2754,10 +2754,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>8838</v>
+        <v>7067</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2769,10 +2769,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>17485</v>
+        <v>14005</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/IP16B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6314226C-59BE-4E12-B04A-706FF822A718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C82227-AD03-4795-8BAF-379CC65B0450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D138733D-4A86-4AB7-91BC-93E9D4B995D3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46404262-D7F7-4757-86D2-8954696850A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="112">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2007 (Tasa respuesta: 2,9%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -79,235 +97,274 @@
     <t>0%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
     <t>20,75%</t>
   </si>
   <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2012 (Tasa respuesta: 2,53%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2015 (Tasa respuesta: 2,35%)</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2012 (Tasa respuesta: 2,53%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2015 (Tasa respuesta: 2,35%)</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -317,15 +374,6 @@
   </si>
   <si>
     <t>3,75%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
   </si>
 </sst>
 </file>
@@ -336,7 +384,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -432,39 +480,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -516,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -627,13 +675,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -642,6 +683,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -706,19 +754,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F83EC4C-F36D-46F3-92FF-2351A4CAFD11}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C636E3-F567-4B13-B4D1-A320DE471DC8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -835,10 +903,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3642</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -850,34 +918,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>4353</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -886,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>5690</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -901,34 +969,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2061</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>7751</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -937,49 +1005,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>5690</v>
+        <v>3642</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2061</v>
+        <v>711</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>7751</v>
+        <v>4353</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -990,49 +1058,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>818</v>
+        <v>4787</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>6734</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>818</v>
+        <v>11521</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,49 +1109,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>3317</v>
+        <v>818</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6871</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>10188</v>
+        <v>818</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,49 +1160,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>4135</v>
+        <v>5605</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>6871</v>
+        <v>6734</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N9" s="7">
-        <v>11006</v>
+        <v>12339</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1145,49 +1213,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>5166</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>1307</v>
+        <v>4988</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>1308</v>
+        <v>10154</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,49 +1264,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>13586</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>9126</v>
+        <v>654</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>22712</v>
+        <v>654</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,93 +1315,93 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>13586</v>
+        <v>5166</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>10433</v>
+        <v>5642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>24020</v>
+        <v>10808</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>818</v>
+        <v>8998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>1308</v>
+        <v>5625</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>2126</v>
+        <v>14623</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -1342,7 +1410,7 @@
         <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,49 +1419,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>22593</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>654</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18058</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>654</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="7">
-        <v>58</v>
-      </c>
-      <c r="N14" s="7">
-        <v>40650</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,55 +1470,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <v>8998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>9</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6279</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>22</v>
+      </c>
+      <c r="N15" s="7">
+        <v>15277</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22593</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7">
+        <v>18058</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>58</v>
+      </c>
+      <c r="N16" s="7">
+        <v>40650</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>818</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1308</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2126</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>34</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>23411</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>27</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>19366</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>61</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>42776</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1463,8 +1692,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EF63EF-8EB3-4584-86D5-27118670122D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8008F914-6766-436A-9F26-E8D51FDB77F3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1480,7 +1709,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1581,49 +1810,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1874</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,49 +1861,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3304</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2767</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>6070</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,49 +1912,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>3304</v>
+        <v>628</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2767</v>
+        <v>1246</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>6070</v>
+        <v>1874</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,49 +1965,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5451</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4783</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>10234</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,49 +2016,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>7716</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6684</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,49 +2067,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>7716</v>
+        <v>5451</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>6684</v>
+        <v>4783</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>14400</v>
+        <v>10234</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,49 +2120,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>1097</v>
+        <v>6845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>5535</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>1097</v>
+        <v>12380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,49 +2171,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>7927</v>
+        <v>1097</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>8307</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>16235</v>
+        <v>1097</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,102 +2222,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>9024</v>
+        <v>7942</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5535</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>19</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8307</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>24</v>
-      </c>
       <c r="N12" s="7">
-        <v>17332</v>
+        <v>13477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>1097</v>
+        <v>6024</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>6193</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>1097</v>
+        <v>12217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,49 +2326,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>18947</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>17758</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>36705</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,55 +2377,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6024</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>9</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6193</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>17</v>
+      </c>
+      <c r="N15" s="7">
+        <v>12217</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18947</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17758</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>52</v>
+      </c>
+      <c r="N16" s="7">
+        <v>36705</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1097</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1097</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>20044</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>17758</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>53</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>37802</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2209,8 +2599,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08090313-5779-4CB8-ACAC-EDF609668EE8}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EDE7E1-841B-4219-92BF-11B2F156EE41}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2226,7 +2616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2327,40 +2717,40 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3172</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -2369,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,46 +2768,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2690</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1718</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>4408</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2429,49 +2819,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>2690</v>
+        <v>1998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1718</v>
+        <v>1174</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>4408</v>
+        <v>3172</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,49 +2872,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5329</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2406</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>7734</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,49 +2923,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8647</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>8838</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>17485</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,49 +2974,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>8647</v>
+        <v>5329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>8838</v>
+        <v>2406</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>17485</v>
+        <v>7734</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,49 +3027,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>6348</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>8734</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>15082</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,49 +3078,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>6938</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>7067</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="7">
-        <v>14005</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,99 +3132,99 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>6938</v>
+        <v>6348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>7067</v>
+        <v>8734</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N12" s="7">
-        <v>14005</v>
+        <v>15082</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>5310</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>9909</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,49 +3233,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>18275</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>17623</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="N14" s="7">
-        <v>35898</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,55 +3284,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5310</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>13</v>
+      </c>
+      <c r="N15" s="7">
+        <v>9909</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>18275</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>24</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>17623</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
         <v>50</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="7">
         <v>35898</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <v>18275</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7">
+        <v>17623</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>50</v>
+      </c>
+      <c r="N18" s="7">
+        <v>35898</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C82227-AD03-4795-8BAF-379CC65B0450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C6A4CD-BF98-4B2B-A55B-5DBD0AE9ABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46404262-D7F7-4757-86D2-8954696850A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D7273FA-2C6A-4EDA-9D7C-7C82AE9533EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="110">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2007 (Tasa respuesta: 2,9%)</t>
   </si>
@@ -112,7 +112,7 @@
     <t>85,4%</t>
   </si>
   <si>
-    <t>36,39%</t>
+    <t>45,25%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -121,13 +121,13 @@
     <t>93,37%</t>
   </si>
   <si>
-    <t>68,64%</t>
+    <t>68,25%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>63,61%</t>
+    <t>54,75%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -136,7 +136,7 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>31,36%</t>
+    <t>31,75%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -148,13 +148,13 @@
     <t>88,41%</t>
   </si>
   <si>
-    <t>50,24%</t>
+    <t>50,3%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>69,82%</t>
+    <t>67,76%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -163,13 +163,13 @@
     <t>11,59%</t>
   </si>
   <si>
-    <t>49,76%</t>
+    <t>49,7%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>30,18%</t>
+    <t>32,24%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -181,13 +181,13 @@
     <t>89,59%</t>
   </si>
   <si>
-    <t>55,15%</t>
+    <t>55,23%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>78,44%</t>
+    <t>74,29%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -196,31 +196,31 @@
     <t>10,41%</t>
   </si>
   <si>
-    <t>44,85%</t>
+    <t>44,77%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>21,56%</t>
+    <t>25,71%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>80,73%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>78,88%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>86,16%</t>
+    <t>87,02%</t>
   </si>
   <si>
     <t>98,49%</t>
@@ -229,13 +229,13 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>19,24%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>21,12%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -244,7 +244,7 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>13,84%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -274,25 +274,25 @@
     <t>86,18%</t>
   </si>
   <si>
-    <t>50,84%</t>
+    <t>35,54%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>69,14%</t>
+    <t>62,98%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>49,16%</t>
+    <t>64,46%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>30,86%</t>
+    <t>37,02%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -304,7 +304,7 @@
     <t>94,52%</t>
   </si>
   <si>
-    <t>72,2%</t>
+    <t>74,84%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -313,13 +313,10 @@
     <t>97,1%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>27,8%</t>
+    <t>25,16%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -328,10 +325,7 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2015 (Tasa respuesta: 2,35%)</t>
+    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2016 (Tasa respuesta: 2,35%)</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -785,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C636E3-F567-4B13-B4D1-A320DE471DC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243668E4-9388-41F7-B930-8AEFE0BD8383}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8008F914-6766-436A-9F26-E8D51FDB77F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9F5F51-480D-4356-B550-73C5E6605507}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2469,7 +2463,7 @@
         <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2487,13 +2481,13 @@
         <v>1097</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2508,7 +2502,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2517,13 +2511,13 @@
         <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EDE7E1-841B-4219-92BF-11B2F156EE41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C96CD3-09C8-45A2-BBC0-82B8AC90E3DA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2616,7 +2610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2911,7 +2905,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2965,7 +2959,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3066,7 +3060,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3105,7 +3099,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3120,7 +3114,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3260,7 +3254,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3346,7 +3340,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3361,7 +3355,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3376,7 +3370,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3400,7 +3394,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3415,7 +3409,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3430,7 +3424,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C6A4CD-BF98-4B2B-A55B-5DBD0AE9ABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA92A99-8F6E-4AF5-ABA0-8681B1DD6BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D7273FA-2C6A-4EDA-9D7C-7C82AE9533EC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5D71002F-83A1-4F7D-A759-94CCB71F8513}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="112">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2007 (Tasa respuesta: 2,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,15 +76,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
     <t>73,58%</t>
   </si>
   <si>
@@ -97,154 +97,154 @@
     <t>0%</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>81,26%</t>
+  </si>
+  <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>40,54%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>68,25%</t>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>59,46%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>31,75%</t>
+    <t>26,36%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>67,76%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>32,24%</t>
+    <t>34,64%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>74,29%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>25,71%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>82,39%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>17,61%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -274,25 +274,25 @@
     <t>86,18%</t>
   </si>
   <si>
-    <t>35,54%</t>
+    <t>48,86%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>62,98%</t>
+    <t>68,65%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>64,46%</t>
+    <t>51,14%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>37,02%</t>
+    <t>31,35%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -301,30 +301,36 @@
     <t>10,53%</t>
   </si>
   <si>
+    <t>92,68%</t>
+  </si>
+  <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>70,94%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>29,06%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
+    <t>13,83%</t>
+  </si>
+  <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2016 (Tasa respuesta: 2,35%)</t>
   </si>
   <si>
@@ -352,19 +358,19 @@
     <t>23,25%</t>
   </si>
   <si>
+    <t>92,39%</t>
+  </si>
+  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
     <t>96,25%</t>
   </si>
   <si>
+    <t>7,61%</t>
+  </si>
+  <si>
     <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -779,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243668E4-9388-41F7-B930-8AEFE0BD8383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB1A525-784D-41CF-8A63-86DD9C4F0C4C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -897,10 +903,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3642</v>
+        <v>711</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -912,10 +918,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>711</v>
+        <v>3642</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -999,25 +1005,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>711</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3642</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>711</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1052,34 +1058,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6734</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4787</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6734</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -1103,31 +1109,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>818</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -1154,25 +1160,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6734</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>5605</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7">
-        <v>6734</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1207,34 +1213,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4988</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5166</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4988</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -1258,31 +1264,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>654</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>41</v>
@@ -1312,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>5166</v>
+        <v>5642</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1327,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>5642</v>
+        <v>5166</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1362,34 +1368,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
+        <v>5625</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
         <v>8998</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5625</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -1413,31 +1419,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>654</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>52</v>
@@ -1464,25 +1470,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
+        <v>6279</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7">
         <v>8998</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6279</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1517,10 +1523,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>22593</v>
+        <v>18058</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>55</v>
@@ -1532,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>18058</v>
+        <v>22593</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>57</v>
@@ -1568,10 +1574,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>818</v>
+        <v>1308</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>62</v>
@@ -1583,10 +1589,10 @@
         <v>63</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1308</v>
+        <v>818</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>64</v>
@@ -1619,25 +1625,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19366</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>34</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>23411</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>27</v>
-      </c>
-      <c r="I18" s="7">
-        <v>19366</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1686,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9F5F51-480D-4356-B550-73C5E6605507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04A355-9205-463C-90EE-6953BA10C173}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1804,31 +1810,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1246</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>628</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1246</v>
-      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1867,7 +1873,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1882,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1906,25 +1912,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1246</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>628</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1246</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1959,31 +1965,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4783</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5451</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4783</v>
-      </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2022,7 +2028,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2037,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2061,25 +2067,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4783</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>5451</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4783</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2114,34 +2120,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5535</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6845</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5535</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2165,34 +2171,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1097</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2216,25 +2222,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
+        <v>5535</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
         <v>7942</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5535</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2269,31 +2275,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6193</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6024</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6193</v>
-      </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2332,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2347,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2371,25 +2377,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6193</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>6024</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6193</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2424,34 +2430,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17758</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>27</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>18947</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17758</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -2463,7 +2469,7 @@
         <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2475,34 +2481,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1097</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2511,13 +2517,13 @@
         <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,25 +2532,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
+        <v>17758</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>20044</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>25</v>
-      </c>
-      <c r="I18" s="7">
-        <v>17758</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2593,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C96CD3-09C8-45A2-BBC0-82B8AC90E3DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8993D8E-894E-4384-88E1-B0BDD781A489}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2610,7 +2616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2711,31 +2717,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1174</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1998</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1174</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2750,7 +2756,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2774,7 +2780,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2789,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2804,7 +2810,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,25 +2819,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1174</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1998</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1174</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2866,31 +2872,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2406</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5329</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2406</v>
-      </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2905,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2929,7 +2935,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2944,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2959,7 +2965,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,25 +2974,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2406</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>5329</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2406</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3021,31 +3027,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8734</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6348</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8734</v>
-      </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3060,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3084,7 +3090,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3099,7 +3105,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3114,7 +3120,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,25 +3129,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8734</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>6348</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8734</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3176,31 +3182,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5310</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4600</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5310</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3215,7 +3221,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3239,7 +3245,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3254,7 +3260,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3269,7 +3275,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,25 +3284,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5310</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>4600</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7">
-        <v>5310</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3331,31 +3337,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17623</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>26</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>18275</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17623</v>
-      </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3370,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3394,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3409,7 +3415,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3424,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,25 +3439,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7">
+        <v>17623</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>26</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>18275</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>24</v>
-      </c>
-      <c r="I18" s="7">
-        <v>17623</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
